--- a/va_facility_data_2025-02-20/North Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/North Charlotte VA Clinic - Facility Data.xlsx"; filename*=UTF-8''North%20Charlotte%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Re10c46abaaad498babdc0c8cb85138cf"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0d900d3e71014608b77fe252205834c3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R408fa70046d64161bd8be145f55ea115"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R00730c3c9c1e47b68b3f1f170b2717e7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rec1bd21d930b4848a17fdd6a19e27667"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re72b76bd9ce243edb6cb6807127877b6"/>
   </x:sheets>
 </x:workbook>
 </file>
